--- a/csv_automation/temperature_profiles.xlsx
+++ b/csv_automation/temperature_profiles.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Home Directory/Programming/Automation/csv_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5EE975-D493-1A40-A160-05D6170B752E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E4460-3AEE-544E-8C89-2CA688A9AE20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temperature_profiles" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -64,124 +71,145 @@
     <t>notes</t>
   </si>
   <si>
+    <t>d_x fixed at 1 minutes worked best</t>
+  </si>
+  <si>
+    <t>appliance</t>
+  </si>
+  <si>
+    <t>appliance_setting</t>
+  </si>
+  <si>
+    <t>crockpot</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>ricecooker</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>full throttle 10 degrees low.</t>
+  </si>
+  <si>
+    <t>full throttle 2 degrees low.</t>
+  </si>
+  <si>
+    <t>Jan 20 19</t>
+  </si>
+  <si>
+    <t>Feb 3 2019</t>
+  </si>
+  <si>
+    <t>warn_high_f</t>
+  </si>
+  <si>
+    <t>warn_low_f</t>
+  </si>
+  <si>
+    <t>only warn when temperature is rising</t>
+  </si>
+  <si>
+    <t>only warn when temperature is falling</t>
+  </si>
+  <si>
+    <t>notify_high</t>
+  </si>
+  <si>
+    <t>notify_low</t>
+  </si>
+  <si>
+    <t>only notify when temperature is rising</t>
+  </si>
+  <si>
+    <t>only notify when temperature is rising. Multiple notifications separated by semicolons.</t>
+  </si>
+  <si>
+    <t>notify_setpoint</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>DOING</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>semicolon delimited floats</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>notify below if falling, above if rising</t>
+  </si>
+  <si>
+    <t># skipped if not empty</t>
+  </si>
+  <si>
+    <t># DOING</t>
+  </si>
+  <si>
+    <t>notify_top_of_hour</t>
+  </si>
+  <si>
+    <t>notify every x hours. For 1 hour: on top of the hour. Every 0.5 hour: top and bottom. 3 hours: ??? Not sure</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>format (name is text)</t>
+  </si>
+  <si>
+    <t>explanation</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
     <t>cbd</t>
   </si>
   <si>
-    <t>d_x fixed at 1 minutes worked best</t>
-  </si>
-  <si>
-    <t>appliance</t>
-  </si>
-  <si>
-    <t>appliance_setting</t>
-  </si>
-  <si>
-    <t>crockpot</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>ricecooker</t>
-  </si>
-  <si>
     <t>ricecooker_investigation</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>full throttle 10 degrees low.</t>
-  </si>
-  <si>
-    <t>full throttle 2 degrees low.</t>
-  </si>
-  <si>
-    <t>Jan 20 19</t>
-  </si>
-  <si>
-    <t>Feb 3 2019</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>explanation</t>
-  </si>
-  <si>
-    <t>warn_high_f</t>
-  </si>
-  <si>
-    <t>warn_low_f</t>
-  </si>
-  <si>
-    <t>only warn when temperature is rising</t>
-  </si>
-  <si>
-    <t>only warn when temperature is falling</t>
-  </si>
-  <si>
-    <t>notify_high</t>
-  </si>
-  <si>
-    <t>notify_low</t>
-  </si>
-  <si>
-    <t>only notify when temperature is rising</t>
-  </si>
-  <si>
-    <t>only notify when temperature is rising. Multiple notifications separated by semicolons.</t>
-  </si>
-  <si>
-    <t>notify_setpoint</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>implementation</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
-    <t>DOING</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>semicolon delimited floats</t>
-  </si>
-  <si>
-    <t>yes/no</t>
-  </si>
-  <si>
-    <t>notify below if falling, above if rising</t>
-  </si>
-  <si>
-    <t>format (name is text)</t>
-  </si>
-  <si>
-    <t># text</t>
-  </si>
-  <si>
-    <t># skipped if not empty</t>
+    <t># text (save as .csv (not UTF!!!)</t>
+  </si>
+  <si>
+    <t>row_number</t>
   </si>
   <si>
     <t>skip</t>
   </si>
   <si>
-    <t># DOING</t>
+    <t>LAST LINE (stop reading)</t>
+  </si>
+  <si>
+    <t>test-feb</t>
+  </si>
+  <si>
+    <t>quick profile test</t>
+  </si>
+  <si>
+    <t>feb 6 2019</t>
   </si>
 </sst>
 </file>
@@ -672,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -682,6 +710,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1038,102 +1069,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
       <c r="U1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
         <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
       </c>
       <c r="W1" t="s">
         <v>30</v>
@@ -1141,222 +1176,257 @@
       <c r="X1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>50</v>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="U3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="W3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="T3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="4" t="s">
+      <c r="C4">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="P4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="X4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>180</v>
+      </c>
+      <c r="K5">
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>-2000</v>
+      </c>
+      <c r="O5">
+        <v>2000</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>60</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y5">
+        <v>190</v>
+      </c>
+      <c r="Z5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="O4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>24</v>
-      </c>
-      <c r="I5">
-        <v>180</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="L5">
-        <v>60</v>
-      </c>
-      <c r="M5">
-        <v>-2000</v>
-      </c>
-      <c r="N5">
-        <v>2000</v>
-      </c>
-      <c r="O5">
-        <v>60</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>60</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5">
-        <v>190</v>
-      </c>
-      <c r="X5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>180</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -1367,287 +1437,1225 @@
         <v>0</v>
       </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>30</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>30</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>1</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>35</v>
+      </c>
+      <c r="W6">
+        <v>190</v>
+      </c>
+      <c r="X6">
+        <v>170</v>
+      </c>
+      <c r="Y6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>180</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>30</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7">
+        <v>190</v>
+      </c>
+      <c r="X7">
+        <v>170</v>
+      </c>
+      <c r="Y7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>0.75</v>
+      </c>
+      <c r="J8">
+        <v>180</v>
+      </c>
+      <c r="K8">
+        <v>0.02</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W8">
+        <v>190</v>
+      </c>
+      <c r="X8">
+        <v>170</v>
+      </c>
+      <c r="Y8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>180</v>
+      </c>
+      <c r="K9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
+        <v>35</v>
+      </c>
+      <c r="W9">
+        <v>190</v>
+      </c>
+      <c r="X9">
+        <v>170</v>
+      </c>
+      <c r="Y9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>180</v>
+      </c>
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10">
+        <v>190</v>
+      </c>
+      <c r="X10">
+        <v>170</v>
+      </c>
+      <c r="Y10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>180</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>30</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W11">
+        <v>190</v>
+      </c>
+      <c r="X11">
+        <v>170</v>
+      </c>
+      <c r="Y11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.05</v>
+      </c>
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M12">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>-2000</v>
+      </c>
+      <c r="O12">
+        <v>2000</v>
+      </c>
+      <c r="P12">
+        <v>60</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>0.05</v>
+      </c>
+      <c r="J13">
+        <v>110</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M13">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>-2000</v>
+      </c>
+      <c r="O13">
+        <v>2000</v>
+      </c>
+      <c r="P13">
+        <v>60</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>30</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>120</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M14">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>-2000</v>
+      </c>
+      <c r="O14">
+        <v>2000</v>
+      </c>
+      <c r="P14">
+        <v>60</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>60</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>ROW()</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>ROW()</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>ROW()</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <f>ROW()</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>ROW()</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>ROW()</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>ROW()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f>ROW()</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>ROW()</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f>ROW()</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f>ROW()</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f>ROW()</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f>ROW()</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f>ROW()</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f>ROW()</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f>ROW()</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f>ROW()</f>
         <v>39</v>
       </c>
-      <c r="U6">
-        <v>190</v>
-      </c>
-      <c r="V6">
-        <v>170</v>
-      </c>
-      <c r="W6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>180</v>
-      </c>
-      <c r="J7">
-        <v>0.01</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>30</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>30</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7">
-        <v>190</v>
-      </c>
-      <c r="V7">
-        <v>170</v>
-      </c>
-      <c r="W7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H8">
-        <v>0.75</v>
-      </c>
-      <c r="I8">
-        <v>180</v>
-      </c>
-      <c r="J8">
-        <v>0.02</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>30</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>30</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8">
-        <v>190</v>
-      </c>
-      <c r="V8">
-        <v>170</v>
-      </c>
-      <c r="W8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <v>180</v>
-      </c>
-      <c r="J9">
-        <v>0.05</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>30</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9">
-        <v>190</v>
-      </c>
-      <c r="V9">
-        <v>170</v>
-      </c>
-      <c r="W9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>0.5</v>
-      </c>
-      <c r="I10">
-        <v>180</v>
-      </c>
-      <c r="J10">
-        <v>0.1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>30</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>30</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10">
-        <v>190</v>
-      </c>
-      <c r="V10">
-        <v>170</v>
-      </c>
-      <c r="W10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>180</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>30</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
-        <v>30</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11">
-        <v>190</v>
-      </c>
-      <c r="V11">
-        <v>170</v>
-      </c>
-      <c r="W11">
-        <v>200</v>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f>ROW()</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f>ROW()</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f>ROW()</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f>ROW()</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f>ROW()</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <f>ROW()</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <f>ROW()</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f>ROW()</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <f>ROW()</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <f>ROW()</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <f>ROW()</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f>ROW()</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <f>ROW()</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <f>ROW()</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f>ROW()</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f>ROW()</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <f>ROW()</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <f>ROW()</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <f>ROW()</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <f>ROW()</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <f>ROW()</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <f>ROW()</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <f>ROW()</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f>ROW()</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <f>ROW()</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <f>ROW()</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <f>ROW()</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <f>ROW()</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <f>ROW()</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f>ROW()</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f>ROW()</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <f>ROW()</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <f>ROW()</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <f>ROW()</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <f>ROW()</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <f>ROW()</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f>ROW()</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f>ROW()</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f>ROW()</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f>ROW()</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f>ROW()</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <f>ROW()</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <f>ROW()</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f>ROW()</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <f>ROW()</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <f>ROW()</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <f>ROW()</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <f>ROW()</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <f>ROW()</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <f>ROW()</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <f>ROW()</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <f>ROW()</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <f>ROW()</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <f>ROW()</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <f>ROW()</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <f>ROW()</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <f>ROW()</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <f>ROW()</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <f>ROW()</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <f>ROW()</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <f>ROW()</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <f>ROW()</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <f>ROW()</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <f>ROW()</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <f>ROW()</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <f>ROW()</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <f>ROW()</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <f>ROW()</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <f>ROW()</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <f>ROW()</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <f>ROW()</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <f>ROW()</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <f>ROW()</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <f>ROW()</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <f>ROW()</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <f>ROW()</f>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <f>ROW()</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <f>ROW()</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <f>ROW()</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <f>ROW()</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <f>ROW()</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <f>ROW()</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <f>ROW()</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <f>ROW()</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <f>ROW()</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <f>ROW()</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <f>ROW()</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <f>ROW()</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <f>ROW()</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <f>ROW()</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <f>ROW()</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <f>ROW()</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <f>ROW()</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <f>ROW()</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <f>ROW()</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <f>ROW()</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <f>ROW()</f>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/csv_automation/temperature_profiles.xlsx
+++ b/csv_automation/temperature_profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Home Directory/Programming/Automation/csv_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0E4460-3AEE-544E-8C89-2CA688A9AE20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42918575-19D5-EF47-97F8-85672B9822B8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temperature_profiles" sheetId="1" r:id="rId1"/>
@@ -1072,10 +1072,10 @@
   <dimension ref="A1:Z136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="K12">
         <v>0.5</v>
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="T12">
         <v>2</v>
@@ -1833,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="I13">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K13">
         <v>0.5</v>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="S13">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="T13">
         <v>2</v>
@@ -1881,10 +1881,10 @@
         <v>14</v>
       </c>
       <c r="I14">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="S14">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="T14">
         <v>2</v>
